--- a/COVID Reopeningplans_WhatWasFirstReopened_Cleaned_5_19_ShareToGitHub.xlsx
+++ b/COVID Reopeningplans_WhatWasFirstReopened_Cleaned_5_19_ShareToGitHub.xlsx
@@ -30,44 +30,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Thuy Nguyen</author>
-  </authors>
-  <commentList>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Thuy Nguyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Brown text: added dates from BU source --&gt; need check with news
-red text: differ from BU source --&gt; alternative coding
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="175">
   <si>
     <t>Alabama</t>
   </si>
@@ -673,22 +637,7 @@
     </r>
   </si>
   <si>
-    <t>Reopening Date_prev</t>
-  </si>
-  <si>
-    <r>
-      <t>Reopening: closed, check?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> From BU source. Select retailers with curbside pickup and delivery options. In-store shopping is still not permitted. https://www.cnn.com/2020/05/08/us/california-coronavirus-reopening/index.html</t>
-    </r>
+    <t xml:space="preserve"> From BU source. Select retailers with curbside pickup and delivery options. In-store shopping is still not permitted. https://www.cnn.com/2020/05/08/us/california-coronavirus-reopening/index.html</t>
   </si>
 </sst>
 </file>
@@ -698,7 +647,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,19 +717,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -839,9 +775,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1149,7 +1085,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5240,25 +5176,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32.44140625" customWidth="1"/>
     <col min="2" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="12" width="15.44140625" customWidth="1"/>
-    <col min="13" max="13" width="37.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="59.44140625" customWidth="1"/>
+    <col min="10" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="37.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="59.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="43.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -5286,26 +5222,23 @@
       <c r="I1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>174</v>
+      <c r="J1" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="20" t="s">
         <v>170</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="M1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5331,21 +5264,18 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUM(B2:H2)</f>
+        <f t="shared" ref="I2:I33" si="0">SUM(B2:H2)</f>
         <v>2</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="18">
         <v>43951</v>
       </c>
-      <c r="K2" s="12">
-        <v>43951</v>
-      </c>
-      <c r="L2" s="12"/>
-      <c r="O2" t="s">
+      <c r="K2" s="12"/>
+      <c r="N2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="114.6" customHeight="1">
+    <row r="3" spans="1:14" ht="114.6" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5361,7 +5291,7 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <v>1</v>
       </c>
       <c r="G3">
@@ -5371,24 +5301,21 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUM(B3:H3)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="18">
         <v>43945</v>
       </c>
-      <c r="K3" s="12">
-        <v>43945</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="1" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O3" t="s">
+      <c r="N3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="28.8">
+    <row r="4" spans="1:14" ht="28.8">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5414,24 +5341,21 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUM(B4:H4)</f>
-        <v>1</v>
-      </c>
-      <c r="J4" s="12">
-        <v>43960</v>
-      </c>
-      <c r="K4" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="18">
         <v>43959</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="1" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5457,21 +5381,18 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUM(B5:H5)</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="18">
         <v>43957</v>
       </c>
-      <c r="K5" s="12">
-        <v>43957</v>
-      </c>
-      <c r="L5" s="12"/>
-      <c r="O5" t="s">
+      <c r="K5" s="12"/>
+      <c r="N5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="86.4">
+    <row r="6" spans="1:14" ht="72">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5497,24 +5418,21 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <f>SUM(B6:H6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="18">
         <v>43959</v>
       </c>
-      <c r="K6" s="19">
-        <v>43959</v>
-      </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="O6" s="8" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5540,57 +5458,57 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUM(B7:H7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="18">
         <v>43952</v>
       </c>
-      <c r="K7" s="12">
-        <v>43952</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="O7" t="s">
+      <c r="K7" s="12"/>
+      <c r="N7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="I8">
-        <f>SUM(B8:H8)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="13" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="L8" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="28.8">
+    <row r="9" spans="1:14" ht="28.8">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="I9">
-        <f>SUM(B9:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="13" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="L9" s="13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="I10">
-        <f>SUM(B10:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="13" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="L10" s="13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="115.2">
+    <row r="11" spans="1:14" ht="115.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5616,26 +5534,23 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f>SUM(B11:H11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J11" s="18">
         <v>43955</v>
       </c>
-      <c r="K11" s="21">
-        <v>43955</v>
-      </c>
-      <c r="L11" s="12">
+      <c r="K11" s="12">
         <v>43969</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="L11" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="N11" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="144">
+    <row r="12" spans="1:14" ht="144">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5661,26 +5576,23 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUM(B12:H12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J12" s="18">
         <v>43945</v>
       </c>
-      <c r="K12" s="21">
-        <v>43945</v>
-      </c>
-      <c r="L12" s="16">
+      <c r="K12" s="16">
         <v>43952</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="L12" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="O12" t="s">
+      <c r="N12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5706,24 +5618,21 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f>SUM(B13:H13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="18">
         <v>43958</v>
       </c>
-      <c r="K13" s="12">
-        <v>43958</v>
-      </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13" t="s">
+      <c r="K13" s="12"/>
+      <c r="L13" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="O13" t="s">
+      <c r="N13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5749,40 +5658,38 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <f>SUM(B14:H14)</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="18">
         <v>43952</v>
       </c>
-      <c r="K14" s="12">
-        <v>43952</v>
-      </c>
-      <c r="L14" s="12"/>
-      <c r="O14" t="s">
+      <c r="K14" s="12"/>
+      <c r="N14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="I15">
-        <f>SUM(B15:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="13" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="L15" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="100.8">
+    <row r="16" spans="1:14" ht="100.8">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>1</v>
       </c>
       <c r="D16">
@@ -5794,31 +5701,28 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <v>1</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <f>SUM(B16:H16)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="18">
         <v>43955</v>
       </c>
-      <c r="K16" s="12">
-        <v>43955</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13" t="s">
+      <c r="K16" s="12"/>
+      <c r="L16" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="N16" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="86.4">
+    <row r="17" spans="1:14" ht="86.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5844,26 +5748,23 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f>SUM(B17:H17)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="18">
         <v>43952</v>
       </c>
-      <c r="K17" s="12">
-        <v>43952</v>
-      </c>
-      <c r="L17" s="16">
+      <c r="K17" s="18">
         <v>43966</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="L17" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="N17" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5889,59 +5790,50 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <f>SUM(B18:H18)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="18">
         <v>43955</v>
       </c>
-      <c r="K18" s="12">
-        <v>43955</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="O18" t="s">
+      <c r="K18" s="12"/>
+      <c r="N18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="I19">
-        <f>SUM(B19:H19)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="18">
         <v>43962</v>
       </c>
-      <c r="K19" s="19">
-        <v>43962</v>
-      </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="1" t="s">
+      <c r="K19" s="19"/>
+      <c r="L19" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="I20">
-        <f>SUM(B20:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="18">
         <v>43966</v>
       </c>
-      <c r="K20" s="19">
-        <v>43966</v>
-      </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="1" t="s">
+      <c r="K20" s="19"/>
+      <c r="L20" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="28.8">
+    <row r="21" spans="1:14" ht="28.8">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5957,7 +5849,7 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>1</v>
       </c>
       <c r="G21">
@@ -5967,92 +5859,85 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f>SUM(B21:H21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="18">
         <v>43952</v>
       </c>
-      <c r="K21" s="12">
-        <v>43952</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="1" t="s">
+      <c r="K21" s="12"/>
+      <c r="L21" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="O21" t="s">
+      <c r="N21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="I22">
-        <f>SUM(B22:H22)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="13" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="L22" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="I23">
-        <f>SUM(B23:H23)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="18">
         <v>43969</v>
       </c>
-      <c r="K23" s="19">
-        <v>43969</v>
-      </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="13" t="s">
+      <c r="K23" s="19"/>
+      <c r="L23" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="I24">
-        <f>SUM(B24:H24)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="13" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="23"/>
+      <c r="L24" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="I25">
-        <f>SUM(B25:H25)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="18">
         <v>43948</v>
       </c>
-      <c r="K25" s="19">
-        <v>43948</v>
-      </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="13" t="s">
+      <c r="K25" s="19"/>
+      <c r="L25" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="N25" t="s">
+      <c r="M25" t="s">
         <v>158</v>
       </c>
-      <c r="O25" s="22" t="s">
+      <c r="N25" s="21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -6078,21 +5963,18 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <f>SUM(B26:H26)</f>
-        <v>1</v>
-      </c>
-      <c r="J26" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="18">
         <v>43948</v>
       </c>
-      <c r="K26" s="12">
-        <v>43948</v>
-      </c>
-      <c r="L26" s="12"/>
-      <c r="O26" t="s">
+      <c r="K26" s="12"/>
+      <c r="N26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="28.8">
+    <row r="27" spans="1:14" ht="28.8">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -6114,28 +5996,25 @@
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="22">
         <v>1</v>
       </c>
       <c r="I27">
-        <f>SUM(B27:H27)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="18">
         <v>43955</v>
       </c>
-      <c r="K27" s="12">
-        <v>43955</v>
-      </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13" t="s">
+      <c r="K27" s="12"/>
+      <c r="L27" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="O27" t="s">
+      <c r="N27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -6161,27 +6040,24 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f>SUM(B28:H28)</f>
-        <v>1</v>
-      </c>
-      <c r="J28" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J28" s="18">
         <v>43947</v>
       </c>
-      <c r="K28" s="12">
-        <v>43947</v>
-      </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="17" t="s">
+      <c r="K28" s="12"/>
+      <c r="L28" s="17" t="s">
         <v>160</v>
       </c>
+      <c r="M28" t="s">
+        <v>65</v>
+      </c>
       <c r="N28" t="s">
-        <v>65</v>
-      </c>
-      <c r="O28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -6207,21 +6083,18 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <f>SUM(B29:H29)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="18">
         <v>43955</v>
       </c>
-      <c r="K29" s="12">
-        <v>43955</v>
-      </c>
-      <c r="L29" s="12"/>
-      <c r="O29" t="s">
+      <c r="K29" s="12"/>
+      <c r="N29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="28.8">
+    <row r="30" spans="1:14" ht="28.8">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -6237,34 +6110,31 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="23">
-        <v>1</v>
-      </c>
-      <c r="G30" s="23">
+      <c r="F30" s="22">
+        <v>1</v>
+      </c>
+      <c r="G30" s="22">
         <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <f>SUM(B30:H30)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="18">
         <v>43960</v>
       </c>
-      <c r="K30" s="12">
-        <v>43960</v>
-      </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="1" t="s">
+      <c r="K30" s="12"/>
+      <c r="L30" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O30" t="s">
+      <c r="N30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -6290,70 +6160,70 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <f>SUM(B31:H31)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="18">
         <v>43962</v>
       </c>
-      <c r="K31" s="12">
-        <v>43962</v>
-      </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="1" t="s">
+      <c r="K31" s="12"/>
+      <c r="L31" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="M31" t="s">
+        <v>67</v>
+      </c>
       <c r="N31" t="s">
-        <v>67</v>
-      </c>
-      <c r="O31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="I32">
-        <f>SUM(B32:H32)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="13" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="23"/>
+      <c r="L32" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="I33">
-        <f>SUM(B33:H33)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="13" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="23"/>
+      <c r="L33" s="13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="I34">
-        <f>SUM(B34:H34)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="13" t="s">
+        <f t="shared" ref="I34:I65" si="1">SUM(B34:H34)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="23"/>
+      <c r="L34" s="13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="72">
+    <row r="35" spans="1:14" ht="72">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="23">
-        <v>1</v>
-      </c>
-      <c r="C35" s="23">
+      <c r="B35" s="22">
+        <v>1</v>
+      </c>
+      <c r="C35" s="22">
         <v>1</v>
       </c>
       <c r="D35">
@@ -6362,7 +6232,7 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="22">
         <v>1</v>
       </c>
       <c r="G35">
@@ -6372,24 +6242,21 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <f>SUM(B35:H35)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="18">
         <v>43959</v>
       </c>
-      <c r="K35" s="12">
-        <v>43959</v>
-      </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="1" t="s">
+      <c r="K35" s="12"/>
+      <c r="L35" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="O35" t="s">
+      <c r="N35" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -6415,45 +6282,41 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <f>SUM(B36:H36)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="18">
         <v>43952</v>
       </c>
-      <c r="K36" s="12">
-        <v>43952</v>
-      </c>
-      <c r="L36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="M36" t="s">
+        <v>161</v>
+      </c>
       <c r="N36" t="s">
-        <v>161</v>
-      </c>
-      <c r="O36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="57.6">
+    <row r="37" spans="1:14" ht="57.6">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="I37">
-        <f>SUM(B37:H37)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="12"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="18"/>
       <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="M37" t="s">
+        <v>76</v>
+      </c>
       <c r="N37" t="s">
-        <v>76</v>
-      </c>
-      <c r="O37" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -6479,43 +6342,37 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <f>SUM(B38:H38)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="18">
         <v>43945</v>
       </c>
-      <c r="K38" s="12">
-        <v>43945</v>
-      </c>
-      <c r="L38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="M38" t="s">
+        <v>69</v>
+      </c>
       <c r="N38" t="s">
-        <v>69</v>
-      </c>
-      <c r="O38" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="I39">
-        <f>SUM(B39:H39)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="18">
         <v>43966</v>
       </c>
-      <c r="K39" s="19">
-        <v>43966</v>
-      </c>
-      <c r="L39" s="19"/>
-      <c r="M39" s="1" t="s">
+      <c r="K39" s="19"/>
+      <c r="L39" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -6532,27 +6389,24 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <f>SUM(B40:H40)</f>
-        <v>1</v>
-      </c>
-      <c r="J40" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="18">
         <v>43959</v>
       </c>
-      <c r="K40" s="12">
-        <v>43959</v>
-      </c>
-      <c r="L40" s="12"/>
-      <c r="M40" s="1" t="s">
+      <c r="K40" s="12"/>
+      <c r="L40" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="M40" t="s">
+        <v>71</v>
+      </c>
       <c r="N40" t="s">
-        <v>71</v>
-      </c>
-      <c r="O40" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -6578,24 +6432,21 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <f>SUM(B41:H41)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J41" s="12">
-        <v>43959</v>
-      </c>
-      <c r="K41" s="16">
+      <c r="J41" s="18">
         <v>43960</v>
       </c>
-      <c r="L41" s="16"/>
-      <c r="M41" s="1" t="s">
+      <c r="K41" s="16"/>
+      <c r="L41" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O41" t="s">
+      <c r="N41" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -6621,43 +6472,37 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <f>SUM(B42:H42)</f>
-        <v>1</v>
-      </c>
-      <c r="J42" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J42" s="18">
         <v>43941</v>
       </c>
-      <c r="K42" s="12">
-        <v>43941</v>
-      </c>
-      <c r="L42" s="12"/>
-      <c r="M42" s="1" t="s">
+      <c r="K42" s="12"/>
+      <c r="L42" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O42" t="s">
+      <c r="N42" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="28.8">
+    <row r="43" spans="1:14" ht="28.8">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="I43">
-        <f>SUM(B43:H43)</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="18">
         <v>43952</v>
       </c>
-      <c r="K43" s="12">
-        <v>43952</v>
-      </c>
-      <c r="L43" s="12"/>
-      <c r="M43" s="1" t="s">
+      <c r="K43" s="12"/>
+      <c r="L43" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -6683,27 +6528,24 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <f>SUM(B44:H44)</f>
-        <v>1</v>
-      </c>
-      <c r="J44" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J44" s="18">
         <v>43948</v>
       </c>
-      <c r="K44" s="12">
-        <v>43948</v>
-      </c>
-      <c r="L44" s="16"/>
-      <c r="M44" s="17" t="s">
+      <c r="K44" s="16"/>
+      <c r="L44" s="17" t="s">
         <v>164</v>
       </c>
+      <c r="M44" t="s">
+        <v>73</v>
+      </c>
       <c r="N44" t="s">
-        <v>73</v>
-      </c>
-      <c r="O44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -6719,7 +6561,7 @@
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="22">
         <v>0</v>
       </c>
       <c r="G45">
@@ -6729,24 +6571,21 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <f>SUM(B45:H45)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="18">
         <v>43952</v>
       </c>
-      <c r="K45" s="12">
-        <v>43952</v>
-      </c>
-      <c r="L45" s="12"/>
-      <c r="M45" s="13" t="s">
+      <c r="K45" s="12"/>
+      <c r="L45" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="O45" t="s">
+      <c r="N45" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -6772,21 +6611,18 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <f>SUM(B46:H46)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="18">
         <v>43952</v>
       </c>
-      <c r="K46" s="12">
-        <v>43952</v>
-      </c>
-      <c r="L46" s="12"/>
-      <c r="O46" t="s">
+      <c r="K46" s="12"/>
+      <c r="N46" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="86.4">
+    <row r="47" spans="1:14" ht="86.4">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -6812,49 +6648,46 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <f>SUM(B47:H47)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J47" s="12"/>
-      <c r="K47" s="16">
+      <c r="J47" s="18">
         <v>43948</v>
       </c>
-      <c r="L47" s="12"/>
-      <c r="M47" s="13" t="s">
+      <c r="K47" s="12"/>
+      <c r="L47" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="I48">
-        <f>SUM(B48:H48)</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="12"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="18"/>
       <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="13" t="s">
+      <c r="L48" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="I49">
-        <f>SUM(B49:H49)</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="12"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="18"/>
       <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="13" t="s">
+      <c r="L49" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -6870,7 +6703,7 @@
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="22">
         <v>0</v>
       </c>
       <c r="G50">
@@ -6880,43 +6713,37 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <f>SUM(B50:H50)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="18">
         <v>43955</v>
       </c>
-      <c r="K50" s="12">
-        <v>43955</v>
-      </c>
-      <c r="L50" s="12"/>
-      <c r="M50" s="13" t="s">
+      <c r="K50" s="12"/>
+      <c r="L50" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="O50" t="s">
+      <c r="N50" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="I51">
-        <f>SUM(B51:H51)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="18">
         <v>43962</v>
       </c>
-      <c r="K51" s="19">
-        <v>43962</v>
-      </c>
-      <c r="L51" s="19"/>
-      <c r="M51" s="1" t="s">
+      <c r="K51" s="19"/>
+      <c r="L51" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -6942,91 +6769,80 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <f>SUM(B52:H52)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J52" s="12">
-        <v>43952</v>
-      </c>
-      <c r="K52" s="12">
+      <c r="J52" s="18">
         <v>43949</v>
       </c>
-      <c r="L52" s="12"/>
-      <c r="M52" s="17" t="s">
+      <c r="K52" s="12"/>
+      <c r="L52" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="O52" t="s">
+      <c r="N52" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>51</v>
       </c>
       <c r="B54" s="14">
-        <f t="shared" ref="B54:I54" si="0">SUM(B2:B52)</f>
+        <f t="shared" ref="B54:I54" si="2">SUM(B2:B52)</f>
         <v>15</v>
       </c>
       <c r="C54" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="D54" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="E54" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="F54" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G54" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H54" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I54" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="J54" s="14">
         <f>COUNT(J2:J52)</f>
-        <v>38</v>
-      </c>
-      <c r="K54" s="14">
-        <f>COUNT(K2:K52)</f>
         <v>39</v>
       </c>
-      <c r="L54" s="14"/>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="K54" s="14"/>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>52</v>
       </c>
-      <c r="I55" s="15">
-        <f>I54/J54</f>
-        <v>2.236842105263158</v>
-      </c>
+      <c r="I55" s="15"/>
     </row>
   </sheetData>
   <sortState ref="A2:M52">
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="O16" display="https://www.indystar.com/story/news/health/2020/05/01/when-indiana-reopen-here-phases-set-reopening/3067992001/ reopen, May 4 except Marion, Lake, and Cass counties, personal services, restaurants and bars, state government executive branch offices, boati"/>
-    <hyperlink ref="O4" r:id="rId1"/>
-    <hyperlink ref="O11" r:id="rId2"/>
-    <hyperlink ref="O17"/>
-    <hyperlink ref="O6" r:id="rId3"/>
+    <hyperlink ref="N16" display="https://www.indystar.com/story/news/health/2020/05/01/when-indiana-reopen-here-phases-set-reopening/3067992001/ reopen, May 4 except Marion, Lake, and Cass counties, personal services, restaurants and bars, state government executive branch offices, boati"/>
+    <hyperlink ref="N4" r:id="rId1"/>
+    <hyperlink ref="N11" r:id="rId2"/>
+    <hyperlink ref="N17" display="https://www.desmoinesregister.com/story/news/health/2020/04/27/coronavirus-covid-19-update-iowa-gov-kim-reynolds-daily-briefing-shutdown-reopening-state-plan/3031798001/ May 1- relax restrictions on restaurants, malls, fitness centers, libraries, retail s"/>
+    <hyperlink ref="N6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/COVID Reopeningplans_WhatWasFirstReopened_Cleaned_5_19_ShareToGitHub.xlsx
+++ b/COVID Reopeningplans_WhatWasFirstReopened_Cleaned_5_19_ShareToGitHub.xlsx
@@ -209,9 +209,6 @@
     <t>Industries</t>
   </si>
   <si>
-    <t>Reopening Date</t>
-  </si>
-  <si>
     <t>April 26- worship, April 27- retail, May 4- restaurants and bars</t>
   </si>
   <si>
@@ -560,6 +557,9 @@
   <si>
     <t>Notes: updated as May 15, 2020</t>
   </si>
+  <si>
+    <t>Initial Reopening Date</t>
+  </si>
 </sst>
 </file>
 
@@ -568,7 +568,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,6 +606,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -615,10 +621,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -628,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -653,8 +668,23 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -962,7 +992,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -972,11 +1002,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1014,23 +1044,23 @@
       <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>60</v>
+      <c r="I1" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1058,16 +1088,16 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <f>SUM(B2:H2)</f>
+      <c r="I2" s="17">
+        <f t="shared" ref="I2:I52" si="0">SUM(B2:H2)</f>
         <v>2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="18">
         <v>43951</v>
       </c>
       <c r="K2" s="4"/>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="114.6" customHeight="1">
@@ -1092,22 +1122,22 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f>SUM(B3:H3)</f>
-        <v>5</v>
-      </c>
-      <c r="J3" s="14">
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J3" s="18">
         <v>43945</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="28.8">
@@ -1115,10 +1145,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1135,56 +1165,56 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <f>SUM(B4:H4)</f>
-        <v>1</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="I4" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J4" s="18">
         <v>43959</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" s="19">
+        <v>43952</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="D5" s="19">
+        <v>43962</v>
+      </c>
+      <c r="E5" s="19">
+        <v>43957</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="G5" s="19">
+        <v>43969</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <f>SUM(B5:H5)</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="14">
+      <c r="I5" s="19">
+        <f t="shared" si="0"/>
+        <v>175840</v>
+      </c>
+      <c r="J5" s="20">
         <v>43957</v>
       </c>
       <c r="K5" s="4"/>
       <c r="N5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="86.4">
@@ -1195,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1213,18 +1243,18 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <f>SUM(B6:H6)</f>
-        <v>3</v>
-      </c>
-      <c r="J6" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J6" s="18">
         <v>43959</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1253,54 +1283,123 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUM(B7:H7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="20">
         <v>43952</v>
       </c>
       <c r="K7" s="4"/>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
       <c r="I8">
-        <f>SUM(B8:H8)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="15"/>
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J8" s="20">
+        <v>43971</v>
+      </c>
       <c r="L8" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="28.8">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="I9">
-        <f>SUM(B9:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="15"/>
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J9" s="20">
+        <v>43971</v>
+      </c>
       <c r="L9" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
       <c r="I10">
         <f>SUM(B10:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="J10" s="4">
+        <v>43980</v>
+      </c>
       <c r="L10" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="115.2">
@@ -1329,20 +1428,20 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f>SUM(B11:H11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="20">
         <v>43955</v>
       </c>
       <c r="K11" s="4">
         <v>43969</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="144">
@@ -1352,39 +1451,39 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12" s="13">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUM(B12:H12)</f>
-        <v>2</v>
-      </c>
-      <c r="J12" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J12" s="20">
         <v>43945</v>
       </c>
       <c r="K12" s="8">
         <v>43952</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1394,37 +1493,37 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <f>SUM(B13:H13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="20">
         <v>43958</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1434,60 +1533,77 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="13">
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <f>SUM(B14:H14)</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="20">
         <v>43952</v>
       </c>
       <c r="K14" s="4"/>
       <c r="N14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15">
-        <f>SUM(B15:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="15"/>
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="22">
+        <v>43952</v>
+      </c>
       <c r="L15" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="100.8">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="13">
         <v>1</v>
       </c>
       <c r="C16" s="13">
@@ -1508,26 +1624,26 @@
       <c r="H16" s="13">
         <v>1</v>
       </c>
-      <c r="I16">
-        <f>SUM(B16:H16)</f>
+      <c r="I16" s="21">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="22">
         <v>43955</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="86.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="13">
         <v>1</v>
       </c>
       <c r="C17" s="13">
@@ -1540,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="13">
         <v>1</v>
@@ -1548,28 +1664,28 @@
       <c r="H17" s="13">
         <v>0</v>
       </c>
-      <c r="I17">
-        <f>SUM(B17:H17)</f>
-        <v>4</v>
-      </c>
-      <c r="J17" s="14">
+      <c r="I17" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J17" s="22">
         <v>43952</v>
       </c>
       <c r="K17" s="8">
         <v>43966</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="13">
         <v>0</v>
       </c>
       <c r="C18" s="13">
@@ -1590,16 +1706,16 @@
       <c r="H18" s="13">
         <v>1</v>
       </c>
-      <c r="I18">
-        <f>SUM(B18:H18)</f>
+      <c r="I18" s="21">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="23">
         <v>43955</v>
       </c>
       <c r="K18" s="4"/>
       <c r="N18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="230.4">
@@ -1607,7 +1723,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="13">
         <v>0</v>
@@ -1619,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="13">
         <v>0</v>
@@ -1627,50 +1743,65 @@
       <c r="H19" s="13">
         <v>1</v>
       </c>
-      <c r="I19">
-        <f>SUM(B19:H19)</f>
-        <v>1</v>
-      </c>
-      <c r="J19" s="14">
+      <c r="I19" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J19" s="23">
         <v>43962</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="N19" t="s">
         <v>140</v>
-      </c>
-      <c r="N19" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20">
-        <f>SUM(B20:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="14">
+      <c r="B20" s="13">
+        <v>1</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J20" s="23">
         <v>43966</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="28.8">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="13">
         <v>1</v>
       </c>
       <c r="C21" s="13">
@@ -1691,79 +1822,128 @@
       <c r="H21" s="13">
         <v>0</v>
       </c>
-      <c r="I21">
-        <f>SUM(B21:H21)</f>
+      <c r="I21" s="21">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="23">
         <v>43952</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22">
-        <f>SUM(B22:H22)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="15"/>
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1</v>
+      </c>
+      <c r="I22" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J22" s="23">
+        <v>43966</v>
+      </c>
       <c r="L22" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23">
-        <f>SUM(B23:H23)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="14">
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1</v>
+      </c>
+      <c r="I23" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J23" s="23">
         <v>43969</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24">
-        <f>SUM(B24:H24)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="15"/>
+      <c r="B24" s="13">
+        <v>1</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="23">
+        <v>43945</v>
+      </c>
       <c r="L24" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1771,7 +1951,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="13">
         <v>0</v>
@@ -1791,31 +1971,31 @@
       <c r="H25" s="13">
         <v>1</v>
       </c>
-      <c r="I25">
-        <f>SUM(B25:H25)</f>
-        <v>1</v>
-      </c>
-      <c r="J25" s="14">
+      <c r="I25" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J25" s="23">
         <v>43948</v>
       </c>
       <c r="K25" s="10">
         <v>43968</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s">
+        <v>122</v>
+      </c>
+      <c r="N25" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="13">
         <v>0</v>
       </c>
       <c r="C26" s="13">
@@ -1836,16 +2016,16 @@
       <c r="H26" s="13">
         <v>0</v>
       </c>
-      <c r="I26">
-        <f>SUM(B26:H26)</f>
-        <v>1</v>
-      </c>
-      <c r="J26" s="14">
+      <c r="I26" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="23">
         <v>43948</v>
       </c>
       <c r="K26" s="4"/>
       <c r="N26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="28.8">
@@ -1873,19 +2053,19 @@
       <c r="H27" s="13">
         <v>1</v>
       </c>
-      <c r="I27">
-        <f>SUM(B27:H27)</f>
+      <c r="I27" s="17">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="18">
         <v>43955</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1895,17 +2075,17 @@
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
+      <c r="C28" s="19">
+        <v>43948</v>
+      </c>
+      <c r="D28" s="19">
+        <v>43955</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28">
-        <v>1</v>
+      <c r="F28" s="19">
+        <v>43947</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1913,22 +2093,22 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28">
-        <f>SUM(B28:H28)</f>
-        <v>1</v>
-      </c>
-      <c r="J28" s="14">
+      <c r="I28" s="17">
+        <f t="shared" si="0"/>
+        <v>131850</v>
+      </c>
+      <c r="J28" s="18">
         <v>43947</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1956,16 +2136,16 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29">
-        <f>SUM(B29:H29)</f>
+      <c r="I29" s="17">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="18">
         <v>43955</v>
       </c>
       <c r="K29" s="4"/>
       <c r="N29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="28.8">
@@ -1993,19 +2173,19 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30">
-        <f>SUM(B30:H30)</f>
+      <c r="I30" s="17">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="18">
         <v>43960</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2018,8 +2198,8 @@
       <c r="C31" s="13">
         <v>1</v>
       </c>
-      <c r="D31" s="13">
-        <v>0</v>
+      <c r="D31" s="24">
+        <v>43969</v>
       </c>
       <c r="E31" s="13">
         <v>1</v>
@@ -2031,24 +2211,24 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <f>SUM(B31:H31)</f>
-        <v>3</v>
-      </c>
-      <c r="J31" s="14">
+        <v>1</v>
+      </c>
+      <c r="I31" s="17">
+        <f t="shared" si="0"/>
+        <v>43973</v>
+      </c>
+      <c r="J31" s="18">
         <v>43962</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2061,51 +2241,87 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="I32">
-        <f>SUM(B32:H32)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="15"/>
+      <c r="I32" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="18">
+        <v>43969</v>
+      </c>
       <c r="L32" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="I33">
-        <f>SUM(B33:H33)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="15"/>
+      <c r="B33" s="13">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13">
+        <v>1</v>
+      </c>
+      <c r="I33" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J33" s="18">
+        <v>43967</v>
+      </c>
       <c r="L33" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="I34">
-        <f>SUM(B34:H34)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="15"/>
+      <c r="B34" s="13">
+        <v>0</v>
+      </c>
+      <c r="C34" s="13">
+        <v>1</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="13">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13">
+        <v>1</v>
+      </c>
+      <c r="I34" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J34" s="18">
+        <v>43966</v>
+      </c>
       <c r="L34" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="72">
@@ -2133,19 +2349,19 @@
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35">
-        <f>SUM(B35:H35)</f>
+      <c r="I35" s="17">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="18">
         <v>43959</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2173,53 +2389,70 @@
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36">
-        <f>SUM(B36:H36)</f>
+      <c r="I36" s="17">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="18">
         <v>43952</v>
       </c>
       <c r="K36" s="4"/>
       <c r="M36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="57.6">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="I37">
-        <f>SUM(B37:H37)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="14"/>
+      <c r="B37" s="13">
+        <v>0</v>
+      </c>
+      <c r="C37" s="25">
+        <v>43963</v>
+      </c>
+      <c r="D37" s="26">
+        <v>0</v>
+      </c>
+      <c r="E37" s="26">
+        <v>0</v>
+      </c>
+      <c r="F37" s="26">
+        <v>0</v>
+      </c>
+      <c r="G37" s="26">
+        <v>0</v>
+      </c>
+      <c r="H37" s="19">
+        <v>43955</v>
+      </c>
+      <c r="I37" s="25">
+        <f t="shared" si="0"/>
+        <v>87918</v>
+      </c>
+      <c r="J37" s="18">
+        <v>43952</v>
+      </c>
       <c r="K37" s="8"/>
       <c r="L37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="13">
-        <v>1</v>
+      <c r="B38" s="25">
+        <v>43945</v>
       </c>
       <c r="C38" s="13">
         <v>0</v>
@@ -2227,53 +2460,68 @@
       <c r="D38" s="13">
         <v>0</v>
       </c>
-      <c r="E38" s="13">
-        <v>1</v>
-      </c>
-      <c r="F38" s="13">
-        <v>0</v>
-      </c>
-      <c r="G38" s="13">
-        <v>0</v>
+      <c r="E38" s="25">
+        <v>43945</v>
+      </c>
+      <c r="F38" s="25">
+        <v>43952</v>
+      </c>
+      <c r="G38" s="25">
+        <v>43952</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38">
-        <f>SUM(B38:H38)</f>
-        <v>2</v>
-      </c>
-      <c r="J38" s="14">
+      <c r="I38" s="25">
+        <f t="shared" si="0"/>
+        <v>175794</v>
+      </c>
+      <c r="J38" s="18">
         <v>43945</v>
       </c>
       <c r="K38" s="4"/>
       <c r="M38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="I39">
-        <f>SUM(B39:H39)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="14">
+      <c r="B39" s="13">
+        <v>1</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0</v>
+      </c>
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
+      <c r="E39" s="26">
+        <v>1</v>
+      </c>
+      <c r="F39" s="26">
+        <v>0</v>
+      </c>
+      <c r="G39" s="26">
+        <v>0</v>
+      </c>
+      <c r="H39" s="26">
+        <v>1</v>
+      </c>
+      <c r="I39" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J39" s="18">
         <v>43966</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2284,8 +2532,8 @@
       <c r="C40" s="13">
         <v>1</v>
       </c>
-      <c r="D40" s="13">
-        <v>0</v>
+      <c r="D40" s="25">
+        <v>43987</v>
       </c>
       <c r="E40" s="13">
         <v>0</v>
@@ -2294,22 +2542,22 @@
       <c r="G40" s="13">
         <v>0</v>
       </c>
-      <c r="I40">
-        <f>SUM(B40:H40)</f>
-        <v>1</v>
-      </c>
-      <c r="J40" s="14">
+      <c r="I40" s="17">
+        <f t="shared" si="0"/>
+        <v>43988</v>
+      </c>
+      <c r="J40" s="18">
         <v>43959</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2337,19 +2585,19 @@
       <c r="H41">
         <v>1</v>
       </c>
-      <c r="I41">
-        <f>SUM(B41:H41)</f>
+      <c r="I41" s="17">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="18">
         <v>43960</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2357,7 +2605,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="13">
         <v>1</v>
@@ -2377,19 +2625,19 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <f>SUM(B42:H42)</f>
-        <v>1</v>
-      </c>
-      <c r="J42" s="14">
+      <c r="I42" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J42" s="18">
         <v>43941</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="28.8">
@@ -2417,36 +2665,36 @@
       <c r="H43" s="13">
         <v>1</v>
       </c>
-      <c r="I43">
-        <f>SUM(B43:H43)</f>
+      <c r="I43" s="17">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="18">
         <v>43952</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="13">
-        <v>0</v>
-      </c>
-      <c r="C44" s="13">
-        <v>0</v>
-      </c>
-      <c r="D44" s="13">
-        <v>1</v>
-      </c>
-      <c r="E44" s="13">
-        <v>0</v>
+      <c r="B44" s="25">
+        <v>43945</v>
+      </c>
+      <c r="C44" s="25">
+        <v>43950</v>
+      </c>
+      <c r="D44" s="25">
+        <v>43948</v>
+      </c>
+      <c r="E44" s="25">
+        <v>43957</v>
       </c>
       <c r="F44" s="13">
         <v>0</v>
@@ -2457,22 +2705,22 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44">
-        <f>SUM(B44:H44)</f>
-        <v>1</v>
-      </c>
-      <c r="J44" s="14">
+      <c r="I44" s="17">
+        <f t="shared" si="0"/>
+        <v>175800</v>
+      </c>
+      <c r="J44" s="18">
         <v>43948</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2500,19 +2748,19 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45">
-        <f>SUM(B45:H45)</f>
+      <c r="I45" s="17">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="18">
         <v>43952</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2540,16 +2788,16 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <f>SUM(B46:H46)</f>
+      <c r="I46" s="17">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="18">
         <v>43952</v>
       </c>
       <c r="K46" s="4"/>
       <c r="N46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="86.4">
@@ -2577,56 +2825,90 @@
       <c r="H47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <f>SUM(B47:H47)</f>
+      <c r="I47" s="17">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="18">
         <v>43948</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="I48">
-        <f>SUM(B48:H48)</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="14"/>
+      <c r="B48" s="13">
+        <v>1</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1</v>
+      </c>
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="13">
+        <v>1</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
+      <c r="I48" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J48" s="18">
+        <v>43966</v>
+      </c>
       <c r="K48" s="4"/>
       <c r="L48" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="I49">
-        <f>SUM(B49:H49)</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="14"/>
+      <c r="B49" s="25">
+        <v>43956</v>
+      </c>
+      <c r="C49" s="13">
+        <v>0</v>
+      </c>
+      <c r="D49" s="13">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0</v>
+      </c>
+      <c r="F49" s="13">
+        <v>0</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0</v>
+      </c>
+      <c r="H49" s="19">
+        <v>43950</v>
+      </c>
+      <c r="I49" s="17">
+        <f t="shared" si="0"/>
+        <v>87906</v>
+      </c>
+      <c r="J49" s="18">
+        <v>43956</v>
+      </c>
       <c r="K49" s="4"/>
       <c r="L49" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2646,35 +2928,35 @@
         <v>1</v>
       </c>
       <c r="F50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="13">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <f>SUM(B50:H50)</f>
-        <v>2</v>
-      </c>
-      <c r="J50" s="14">
+        <v>1</v>
+      </c>
+      <c r="I50" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J50" s="18">
         <v>43955</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="13">
-        <v>0</v>
+      <c r="B51" s="25">
+        <v>43950</v>
       </c>
       <c r="C51" s="13">
         <v>1</v>
@@ -2694,16 +2976,16 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <f>SUM(B51:H51)</f>
-        <v>3</v>
-      </c>
-      <c r="J51" s="14">
+      <c r="I51" s="17">
+        <f t="shared" si="0"/>
+        <v>43953</v>
+      </c>
+      <c r="J51" s="18">
         <v>43962</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2731,73 +3013,49 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52">
-        <f>SUM(B52:H52)</f>
+      <c r="I52" s="17">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J52" s="14">
-        <v>43949</v>
+      <c r="J52" s="18">
+        <v>43952</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="J53" s="15"/>
+      <c r="J53" s="14"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="6">
-        <f t="shared" ref="B54:I54" si="0">SUM(B2:B52)</f>
-        <v>16</v>
-      </c>
-      <c r="C54" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D54" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E54" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="F54" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G54" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H54" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I54" s="6">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
       <c r="J54" s="6">
         <f>COUNT(J2:J52)</f>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I55" s="7">
         <f>I54/J54</f>
-        <v>2.4871794871794872</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
